--- a/data/获取数据/政策导向指标/非国企20年数据/301528.xlsx
+++ b/data/获取数据/政策导向指标/非国企20年数据/301528.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="71">
   <si>
     <t>股票名称</t>
   </si>
@@ -55,12 +55,36 @@
     <t>换手率</t>
   </si>
   <si>
+    <t>证券代码</t>
+  </si>
+  <si>
+    <t>证券简称</t>
+  </si>
+  <si>
+    <t>变动日期</t>
+  </si>
+  <si>
+    <t>实际控制人名称</t>
+  </si>
+  <si>
+    <t>控股数量(万股)</t>
+  </si>
+  <si>
+    <t>控股比例(%)</t>
+  </si>
+  <si>
+    <t>直接控制人名称</t>
+  </si>
+  <si>
+    <t>控制方式</t>
+  </si>
+  <si>
+    <t>政府支持度</t>
+  </si>
+  <si>
     <t>多浦乐</t>
   </si>
   <si>
-    <t>301528</t>
-  </si>
-  <si>
     <t>2023-08-28</t>
   </si>
   <si>
@@ -191,6 +215,18 @@
   </si>
   <si>
     <t>2023-11-03</t>
+  </si>
+  <si>
+    <t>2023-08-27</t>
+  </si>
+  <si>
+    <t>蔡庆生</t>
+  </si>
+  <si>
+    <t>蔡庆生;广州悦生泰达投资合伙企业(有限合伙)</t>
+  </si>
+  <si>
+    <t>单独控制</t>
   </si>
 </sst>
 </file>
@@ -548,13 +584,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:V46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,16 +630,43 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>301528</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>175</v>
@@ -636,1766 +699,1795 @@
         <v>77.56999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
+    <row r="3" spans="1:22">
+      <c r="N3">
+        <v>301528</v>
+      </c>
+      <c r="O3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>68</v>
+      </c>
+      <c r="R3">
+        <v>2681</v>
+      </c>
+      <c r="S3">
+        <v>43.31</v>
+      </c>
+      <c r="T3" t="s">
+        <v>69</v>
+      </c>
+      <c r="U3" t="s">
+        <v>70</v>
+      </c>
+      <c r="V3">
+        <v>69.04549116496939</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>301528</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4">
         <v>115</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>131.88</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>136.3</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>112</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>76863</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>963179440</v>
       </c>
-      <c r="J3">
+      <c r="J4">
         <v>18.95</v>
       </c>
-      <c r="K3">
+      <c r="K4">
         <v>2.86</v>
       </c>
-      <c r="L3">
+      <c r="L4">
         <v>3.67</v>
       </c>
-      <c r="M3">
+      <c r="M4">
         <v>54.45</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4">
+    <row r="5" spans="1:22">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>301528</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
         <v>127.22</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>115.11</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>129.88</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>112.81</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>65545</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <v>788583038</v>
       </c>
-      <c r="J4">
+      <c r="J5">
         <v>12.94</v>
       </c>
-      <c r="K4">
+      <c r="K5">
         <v>-12.72</v>
       </c>
-      <c r="L4">
+      <c r="L5">
         <v>-16.77</v>
       </c>
-      <c r="M4">
+      <c r="M5">
         <v>46.43</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5">
+    <row r="6" spans="1:22">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>301528</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
         <v>110.01</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>119.18</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>120</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>110</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>53102</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>610318054</v>
       </c>
-      <c r="J5">
+      <c r="J6">
         <v>8.69</v>
       </c>
-      <c r="K5">
+      <c r="K6">
         <v>3.54</v>
       </c>
-      <c r="L5">
+      <c r="L6">
         <v>4.07</v>
       </c>
-      <c r="M5">
+      <c r="M6">
         <v>37.62</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6">
+    <row r="7" spans="1:22">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>301528</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7">
         <v>117.2</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>106.88</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>118.18</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>106.88</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>44190</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>497410354</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>9.48</v>
       </c>
-      <c r="K6">
+      <c r="K7">
         <v>-10.32</v>
       </c>
-      <c r="L6">
+      <c r="L7">
         <v>-12.3</v>
       </c>
-      <c r="M6">
+      <c r="M7">
         <v>31.3</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7">
+    <row r="8" spans="1:22">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>301528</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8">
         <v>106.88</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>100.95</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>108</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>100.71</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>41549</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <v>427077497</v>
       </c>
-      <c r="J7">
+      <c r="J8">
         <v>6.82</v>
       </c>
-      <c r="K7">
+      <c r="K8">
         <v>-5.55</v>
       </c>
-      <c r="L7">
+      <c r="L8">
         <v>-5.93</v>
       </c>
-      <c r="M7">
+      <c r="M8">
         <v>29.43</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8">
+    <row r="9" spans="1:22">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>301528</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9">
         <v>100</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>97.40000000000001</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>100.75</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>97.2</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>33591</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>330783505</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <v>3.52</v>
       </c>
-      <c r="K8">
+      <c r="K9">
         <v>-3.52</v>
       </c>
-      <c r="L8">
+      <c r="L9">
         <v>-3.55</v>
       </c>
-      <c r="M8">
+      <c r="M9">
         <v>23.8</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9">
+    <row r="10" spans="1:22">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>301528</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10">
         <v>97</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>100.27</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>100.55</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>97</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>31129</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>308715948</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <v>3.64</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <v>2.95</v>
       </c>
-      <c r="L9">
+      <c r="L10">
         <v>2.87</v>
       </c>
-      <c r="M9">
+      <c r="M10">
         <v>22.05</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10">
+    <row r="11" spans="1:22">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>301528</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11">
         <v>100.27</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>94.34999999999999</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>100.34</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>94.34999999999999</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>31683</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>304848374</v>
       </c>
-      <c r="J10">
+      <c r="J11">
         <v>5.97</v>
       </c>
-      <c r="K10">
+      <c r="K11">
         <v>-5.9</v>
       </c>
-      <c r="L10">
+      <c r="L11">
         <v>-5.92</v>
       </c>
-      <c r="M10">
+      <c r="M11">
         <v>22.44</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11">
+    <row r="12" spans="1:22">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>301528</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12">
         <v>94.02</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>95.76000000000001</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>96.58</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>93.68000000000001</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>19175</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>183066506</v>
       </c>
-      <c r="J11">
+      <c r="J12">
         <v>3.07</v>
       </c>
-      <c r="K11">
+      <c r="K12">
         <v>1.49</v>
       </c>
-      <c r="L11">
+      <c r="L12">
         <v>1.41</v>
       </c>
-      <c r="M11">
+      <c r="M12">
         <v>13.58</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12">
+    <row r="13" spans="1:22">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>301528</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13">
         <v>95.29000000000001</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>93.87</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>95.76000000000001</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>93.58</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>17741</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>167710398</v>
       </c>
-      <c r="J12">
+      <c r="J13">
         <v>2.28</v>
       </c>
-      <c r="K12">
+      <c r="K13">
         <v>-1.97</v>
       </c>
-      <c r="L12">
+      <c r="L13">
         <v>-1.89</v>
       </c>
-      <c r="M12">
+      <c r="M13">
         <v>12.57</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13">
+    <row r="14" spans="1:22">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>301528</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14">
         <v>93.5</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>93.93000000000001</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>94.89</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>93.5</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>13064</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <v>122932890</v>
       </c>
-      <c r="J13">
+      <c r="J14">
         <v>1.48</v>
       </c>
-      <c r="K13">
+      <c r="K14">
         <v>0.06</v>
       </c>
-      <c r="L13">
+      <c r="L14">
         <v>0.06</v>
       </c>
-      <c r="M13">
+      <c r="M14">
         <v>9.25</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14">
+    <row r="15" spans="1:22">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>301528</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15">
         <v>95.26000000000001</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>94.56999999999999</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>96.17</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>93.8</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <v>16700</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <v>158155653</v>
       </c>
-      <c r="J14">
+      <c r="J15">
         <v>2.52</v>
       </c>
-      <c r="K14">
+      <c r="K15">
         <v>0.68</v>
       </c>
-      <c r="L14">
+      <c r="L15">
         <v>0.64</v>
       </c>
-      <c r="M14">
+      <c r="M15">
         <v>11.83</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15">
+    <row r="16" spans="1:22">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>301528</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16">
         <v>93.48999999999999</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>88.23</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>93.48999999999999</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>87.89</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <v>25607</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <v>229588688</v>
       </c>
-      <c r="J15">
+      <c r="J16">
         <v>5.92</v>
       </c>
-      <c r="K15">
+      <c r="K16">
         <v>-6.7</v>
       </c>
-      <c r="L15">
+      <c r="L16">
         <v>-6.34</v>
       </c>
-      <c r="M15">
+      <c r="M16">
         <v>18.14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16">
-        <v>87.97</v>
-      </c>
-      <c r="E16">
-        <v>85.48</v>
-      </c>
-      <c r="F16">
-        <v>88.59999999999999</v>
-      </c>
-      <c r="G16">
-        <v>85.48</v>
-      </c>
-      <c r="H16">
-        <v>15246</v>
-      </c>
-      <c r="I16">
-        <v>131594424</v>
-      </c>
-      <c r="J16">
-        <v>3.54</v>
-      </c>
-      <c r="K16">
-        <v>-3.12</v>
-      </c>
-      <c r="L16">
-        <v>-2.75</v>
-      </c>
-      <c r="M16">
-        <v>10.8</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>301528</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D17">
-        <v>84.70999999999999</v>
+        <v>87.97</v>
       </c>
       <c r="E17">
-        <v>87.09999999999999</v>
+        <v>85.48</v>
       </c>
       <c r="F17">
-        <v>88.5</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="G17">
-        <v>84.68000000000001</v>
+        <v>85.48</v>
       </c>
       <c r="H17">
-        <v>17454</v>
+        <v>15246</v>
       </c>
       <c r="I17">
-        <v>152427633</v>
+        <v>131594424</v>
       </c>
       <c r="J17">
-        <v>4.47</v>
+        <v>3.54</v>
       </c>
       <c r="K17">
-        <v>1.9</v>
+        <v>-3.12</v>
       </c>
       <c r="L17">
-        <v>1.62</v>
+        <v>-2.75</v>
       </c>
       <c r="M17">
-        <v>12.36</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>301528</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D18">
-        <v>86.8</v>
+        <v>84.70999999999999</v>
       </c>
       <c r="E18">
-        <v>87.61</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="F18">
-        <v>88.34999999999999</v>
+        <v>88.5</v>
       </c>
       <c r="G18">
-        <v>86.5</v>
+        <v>84.68000000000001</v>
       </c>
       <c r="H18">
-        <v>11511</v>
+        <v>17454</v>
       </c>
       <c r="I18">
-        <v>100457032</v>
+        <v>152427633</v>
       </c>
       <c r="J18">
-        <v>2.12</v>
+        <v>4.47</v>
       </c>
       <c r="K18">
-        <v>0.59</v>
+        <v>1.9</v>
       </c>
       <c r="L18">
-        <v>0.51</v>
+        <v>1.62</v>
       </c>
       <c r="M18">
-        <v>8.15</v>
+        <v>12.36</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>301528</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D19">
-        <v>87</v>
+        <v>86.8</v>
       </c>
       <c r="E19">
-        <v>86.09999999999999</v>
+        <v>87.61</v>
       </c>
       <c r="F19">
-        <v>87.97</v>
+        <v>88.34999999999999</v>
       </c>
       <c r="G19">
-        <v>85</v>
+        <v>86.5</v>
       </c>
       <c r="H19">
-        <v>10768</v>
+        <v>11511</v>
       </c>
       <c r="I19">
-        <v>93382004</v>
+        <v>100457032</v>
       </c>
       <c r="J19">
-        <v>3.39</v>
+        <v>2.12</v>
       </c>
       <c r="K19">
-        <v>-1.72</v>
+        <v>0.59</v>
       </c>
       <c r="L19">
-        <v>-1.51</v>
+        <v>0.51</v>
       </c>
       <c r="M19">
-        <v>7.63</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>301528</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D20">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E20">
-        <v>84.7</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="F20">
-        <v>87.7</v>
+        <v>87.97</v>
       </c>
       <c r="G20">
-        <v>84.66</v>
+        <v>85</v>
       </c>
       <c r="H20">
-        <v>11885</v>
+        <v>10768</v>
       </c>
       <c r="I20">
-        <v>102488465</v>
+        <v>93382004</v>
       </c>
       <c r="J20">
-        <v>3.53</v>
+        <v>3.39</v>
       </c>
       <c r="K20">
-        <v>-1.63</v>
+        <v>-1.72</v>
       </c>
       <c r="L20">
-        <v>-1.4</v>
+        <v>-1.51</v>
       </c>
       <c r="M20">
-        <v>8.42</v>
+        <v>7.63</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>301528</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D21">
-        <v>84.2</v>
+        <v>86</v>
       </c>
       <c r="E21">
-        <v>85.95</v>
+        <v>84.7</v>
       </c>
       <c r="F21">
-        <v>86.09</v>
+        <v>87.7</v>
       </c>
       <c r="G21">
-        <v>84.18000000000001</v>
+        <v>84.66</v>
       </c>
       <c r="H21">
-        <v>10360</v>
+        <v>11885</v>
       </c>
       <c r="I21">
-        <v>88571932</v>
+        <v>102488465</v>
       </c>
       <c r="J21">
-        <v>2.26</v>
+        <v>3.53</v>
       </c>
       <c r="K21">
-        <v>1.48</v>
+        <v>-1.63</v>
       </c>
       <c r="L21">
-        <v>1.25</v>
+        <v>-1.4</v>
       </c>
       <c r="M21">
-        <v>7.34</v>
+        <v>8.42</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>301528</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D22">
-        <v>86.38</v>
+        <v>84.2</v>
       </c>
       <c r="E22">
-        <v>87.02</v>
+        <v>85.95</v>
       </c>
       <c r="F22">
-        <v>87.94</v>
+        <v>86.09</v>
       </c>
       <c r="G22">
-        <v>85.76000000000001</v>
+        <v>84.18000000000001</v>
       </c>
       <c r="H22">
-        <v>13182</v>
+        <v>10360</v>
       </c>
       <c r="I22">
-        <v>114466490</v>
+        <v>88571932</v>
       </c>
       <c r="J22">
-        <v>2.54</v>
+        <v>2.26</v>
       </c>
       <c r="K22">
-        <v>1.24</v>
+        <v>1.48</v>
       </c>
       <c r="L22">
-        <v>1.07</v>
+        <v>1.25</v>
       </c>
       <c r="M22">
-        <v>9.34</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>301528</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D23">
-        <v>86.40000000000001</v>
+        <v>86.38</v>
       </c>
       <c r="E23">
-        <v>85.93000000000001</v>
+        <v>87.02</v>
       </c>
       <c r="F23">
-        <v>86.88</v>
+        <v>87.94</v>
       </c>
       <c r="G23">
-        <v>84.79000000000001</v>
+        <v>85.76000000000001</v>
       </c>
       <c r="H23">
-        <v>11662</v>
+        <v>13182</v>
       </c>
       <c r="I23">
-        <v>100167248</v>
+        <v>114466490</v>
       </c>
       <c r="J23">
-        <v>2.4</v>
+        <v>2.54</v>
       </c>
       <c r="K23">
-        <v>-1.25</v>
+        <v>1.24</v>
       </c>
       <c r="L23">
-        <v>-1.09</v>
+        <v>1.07</v>
       </c>
       <c r="M23">
-        <v>8.26</v>
+        <v>9.34</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>301528</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D24">
-        <v>85.98999999999999</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="E24">
-        <v>85.17</v>
+        <v>85.93000000000001</v>
       </c>
       <c r="F24">
-        <v>86.48</v>
+        <v>86.88</v>
       </c>
       <c r="G24">
-        <v>85.17</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="H24">
-        <v>11071</v>
+        <v>11662</v>
       </c>
       <c r="I24">
-        <v>94959712</v>
+        <v>100167248</v>
       </c>
       <c r="J24">
-        <v>1.52</v>
+        <v>2.4</v>
       </c>
       <c r="K24">
-        <v>-0.88</v>
+        <v>-1.25</v>
       </c>
       <c r="L24">
-        <v>-0.76</v>
+        <v>-1.09</v>
       </c>
       <c r="M24">
-        <v>7.84</v>
+        <v>8.26</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>301528</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D25">
-        <v>85.5</v>
+        <v>85.98999999999999</v>
       </c>
       <c r="E25">
-        <v>84.77</v>
+        <v>85.17</v>
       </c>
       <c r="F25">
-        <v>86</v>
+        <v>86.48</v>
       </c>
       <c r="G25">
-        <v>84.38</v>
+        <v>85.17</v>
       </c>
       <c r="H25">
-        <v>11196</v>
+        <v>11071</v>
       </c>
       <c r="I25">
-        <v>95213051</v>
+        <v>94959712</v>
       </c>
       <c r="J25">
-        <v>1.9</v>
+        <v>1.52</v>
       </c>
       <c r="K25">
-        <v>-0.47</v>
+        <v>-0.88</v>
       </c>
       <c r="L25">
-        <v>-0.4</v>
+        <v>-0.76</v>
       </c>
       <c r="M25">
-        <v>7.93</v>
+        <v>7.84</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>301528</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D26">
-        <v>84.23</v>
+        <v>85.5</v>
       </c>
       <c r="E26">
-        <v>82.53</v>
+        <v>84.77</v>
       </c>
       <c r="F26">
-        <v>84.79000000000001</v>
+        <v>86</v>
       </c>
       <c r="G26">
-        <v>82.53</v>
+        <v>84.38</v>
       </c>
       <c r="H26">
-        <v>8582</v>
+        <v>11196</v>
       </c>
       <c r="I26">
-        <v>71781677</v>
+        <v>95213051</v>
       </c>
       <c r="J26">
-        <v>2.67</v>
+        <v>1.9</v>
       </c>
       <c r="K26">
-        <v>-2.64</v>
+        <v>-0.47</v>
       </c>
       <c r="L26">
-        <v>-2.24</v>
+        <v>-0.4</v>
       </c>
       <c r="M26">
-        <v>6.08</v>
+        <v>7.93</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B27">
+        <v>301528</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D27">
-        <v>82.55</v>
+        <v>84.23</v>
       </c>
       <c r="E27">
-        <v>83</v>
+        <v>82.53</v>
       </c>
       <c r="F27">
-        <v>84.65000000000001</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="G27">
-        <v>82.05</v>
+        <v>82.53</v>
       </c>
       <c r="H27">
-        <v>8680</v>
+        <v>8582</v>
       </c>
       <c r="I27">
-        <v>72335589</v>
+        <v>71781677</v>
       </c>
       <c r="J27">
-        <v>3.15</v>
+        <v>2.67</v>
       </c>
       <c r="K27">
-        <v>0.57</v>
+        <v>-2.64</v>
       </c>
       <c r="L27">
-        <v>0.47</v>
+        <v>-2.24</v>
       </c>
       <c r="M27">
-        <v>6.15</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B28">
+        <v>301528</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D28">
-        <v>82.88</v>
+        <v>82.55</v>
       </c>
       <c r="E28">
-        <v>84.28</v>
+        <v>83</v>
       </c>
       <c r="F28">
         <v>84.65000000000001</v>
       </c>
       <c r="G28">
-        <v>81.59999999999999</v>
+        <v>82.05</v>
       </c>
       <c r="H28">
-        <v>14021</v>
+        <v>8680</v>
       </c>
       <c r="I28">
-        <v>116464547</v>
+        <v>72335589</v>
       </c>
       <c r="J28">
-        <v>3.67</v>
+        <v>3.15</v>
       </c>
       <c r="K28">
-        <v>1.54</v>
+        <v>0.57</v>
       </c>
       <c r="L28">
-        <v>1.28</v>
+        <v>0.47</v>
       </c>
       <c r="M28">
-        <v>9.93</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <v>301528</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D29">
-        <v>83.7</v>
+        <v>82.88</v>
       </c>
       <c r="E29">
-        <v>84.29000000000001</v>
+        <v>84.28</v>
       </c>
       <c r="F29">
-        <v>85.58</v>
+        <v>84.65000000000001</v>
       </c>
       <c r="G29">
-        <v>83.40000000000001</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="H29">
-        <v>9558</v>
+        <v>14021</v>
       </c>
       <c r="I29">
-        <v>80585216</v>
+        <v>116464547</v>
       </c>
       <c r="J29">
-        <v>2.59</v>
+        <v>3.67</v>
       </c>
       <c r="K29">
-        <v>0.01</v>
+        <v>1.54</v>
       </c>
       <c r="L29">
-        <v>0.01</v>
+        <v>1.28</v>
       </c>
       <c r="M29">
-        <v>6.77</v>
+        <v>9.93</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <v>301528</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D30">
-        <v>84</v>
+        <v>83.7</v>
       </c>
       <c r="E30">
-        <v>81.8</v>
+        <v>84.29000000000001</v>
       </c>
       <c r="F30">
-        <v>84</v>
+        <v>85.58</v>
       </c>
       <c r="G30">
-        <v>81.8</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="H30">
-        <v>6746</v>
+        <v>9558</v>
       </c>
       <c r="I30">
-        <v>55881674</v>
+        <v>80585216</v>
       </c>
       <c r="J30">
-        <v>2.61</v>
+        <v>2.59</v>
       </c>
       <c r="K30">
-        <v>-2.95</v>
+        <v>0.01</v>
       </c>
       <c r="L30">
-        <v>-2.49</v>
+        <v>0.01</v>
       </c>
       <c r="M30">
-        <v>4.78</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B31">
+        <v>301528</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D31">
-        <v>81.94</v>
+        <v>84</v>
       </c>
       <c r="E31">
-        <v>79.79000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="F31">
-        <v>83.8</v>
+        <v>84</v>
       </c>
       <c r="G31">
-        <v>78.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="H31">
-        <v>11050</v>
+        <v>6746</v>
       </c>
       <c r="I31">
-        <v>89361921</v>
+        <v>55881674</v>
       </c>
       <c r="J31">
-        <v>5.99</v>
+        <v>2.61</v>
       </c>
       <c r="K31">
-        <v>-2.46</v>
+        <v>-2.95</v>
       </c>
       <c r="L31">
-        <v>-2.01</v>
+        <v>-2.49</v>
       </c>
       <c r="M31">
-        <v>7.83</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B32">
+        <v>301528</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D32">
-        <v>80.03</v>
+        <v>81.94</v>
       </c>
       <c r="E32">
-        <v>79.8</v>
+        <v>79.79000000000001</v>
       </c>
       <c r="F32">
-        <v>81.36</v>
+        <v>83.8</v>
       </c>
       <c r="G32">
-        <v>78.13</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="H32">
-        <v>7121</v>
+        <v>11050</v>
       </c>
       <c r="I32">
-        <v>56643744</v>
+        <v>89361921</v>
       </c>
       <c r="J32">
-        <v>4.05</v>
+        <v>5.99</v>
       </c>
       <c r="K32">
-        <v>0.01</v>
+        <v>-2.46</v>
       </c>
       <c r="L32">
-        <v>0.01</v>
+        <v>-2.01</v>
       </c>
       <c r="M32">
-        <v>5.04</v>
+        <v>7.83</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B33">
+        <v>301528</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D33">
+        <v>80.03</v>
+      </c>
+      <c r="E33">
         <v>79.8</v>
       </c>
-      <c r="E33">
-        <v>75.97</v>
-      </c>
       <c r="F33">
-        <v>79.81</v>
+        <v>81.36</v>
       </c>
       <c r="G33">
-        <v>75.93000000000001</v>
+        <v>78.13</v>
       </c>
       <c r="H33">
-        <v>8324</v>
+        <v>7121</v>
       </c>
       <c r="I33">
-        <v>64142893</v>
+        <v>56643744</v>
       </c>
       <c r="J33">
-        <v>4.86</v>
+        <v>4.05</v>
       </c>
       <c r="K33">
-        <v>-4.8</v>
+        <v>0.01</v>
       </c>
       <c r="L33">
-        <v>-3.83</v>
+        <v>0.01</v>
       </c>
       <c r="M33">
-        <v>5.9</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B34">
+        <v>301528</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D34">
-        <v>75.75</v>
+        <v>79.8</v>
       </c>
       <c r="E34">
-        <v>75.41</v>
+        <v>75.97</v>
       </c>
       <c r="F34">
-        <v>77.12</v>
+        <v>79.81</v>
       </c>
       <c r="G34">
-        <v>75.16</v>
+        <v>75.93000000000001</v>
       </c>
       <c r="H34">
-        <v>6242</v>
+        <v>8324</v>
       </c>
       <c r="I34">
-        <v>47633824</v>
+        <v>64142893</v>
       </c>
       <c r="J34">
-        <v>2.58</v>
+        <v>4.86</v>
       </c>
       <c r="K34">
-        <v>-0.74</v>
+        <v>-4.8</v>
       </c>
       <c r="L34">
-        <v>-0.5600000000000001</v>
+        <v>-3.83</v>
       </c>
       <c r="M34">
-        <v>4.42</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B35">
+        <v>301528</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D35">
-        <v>75.09999999999999</v>
+        <v>75.75</v>
       </c>
       <c r="E35">
-        <v>75.20999999999999</v>
+        <v>75.41</v>
       </c>
       <c r="F35">
-        <v>77.19</v>
+        <v>77.12</v>
       </c>
       <c r="G35">
-        <v>74.68000000000001</v>
+        <v>75.16</v>
       </c>
       <c r="H35">
-        <v>6035</v>
+        <v>6242</v>
       </c>
       <c r="I35">
-        <v>45725842</v>
+        <v>47633824</v>
       </c>
       <c r="J35">
-        <v>3.33</v>
+        <v>2.58</v>
       </c>
       <c r="K35">
-        <v>-0.27</v>
+        <v>-0.74</v>
       </c>
       <c r="L35">
-        <v>-0.2</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="M35">
-        <v>4.28</v>
+        <v>4.42</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B36">
+        <v>301528</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D36">
-        <v>75.5</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="E36">
-        <v>72.01000000000001</v>
+        <v>75.20999999999999</v>
       </c>
       <c r="F36">
-        <v>75.5</v>
+        <v>77.19</v>
       </c>
       <c r="G36">
-        <v>71.91</v>
+        <v>74.68000000000001</v>
       </c>
       <c r="H36">
-        <v>8414</v>
+        <v>6035</v>
       </c>
       <c r="I36">
-        <v>61195733</v>
+        <v>45725842</v>
       </c>
       <c r="J36">
-        <v>4.77</v>
+        <v>3.33</v>
       </c>
       <c r="K36">
-        <v>-4.25</v>
+        <v>-0.27</v>
       </c>
       <c r="L36">
-        <v>-3.2</v>
+        <v>-0.2</v>
       </c>
       <c r="M36">
-        <v>5.96</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B37">
+        <v>301528</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D37">
-        <v>72.09999999999999</v>
+        <v>75.5</v>
       </c>
       <c r="E37">
-        <v>73.11</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="F37">
-        <v>73.67</v>
+        <v>75.5</v>
       </c>
       <c r="G37">
-        <v>72.03</v>
+        <v>71.91</v>
       </c>
       <c r="H37">
-        <v>7980</v>
+        <v>8414</v>
       </c>
       <c r="I37">
-        <v>58283171</v>
+        <v>61195733</v>
       </c>
       <c r="J37">
-        <v>2.28</v>
+        <v>4.77</v>
       </c>
       <c r="K37">
-        <v>1.53</v>
+        <v>-4.25</v>
       </c>
       <c r="L37">
-        <v>1.1</v>
+        <v>-3.2</v>
       </c>
       <c r="M37">
-        <v>5.65</v>
+        <v>5.96</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B38">
+        <v>301528</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D38">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="E38">
         <v>73.11</v>
       </c>
-      <c r="E38">
-        <v>72.48999999999999</v>
-      </c>
       <c r="F38">
-        <v>73.56999999999999</v>
+        <v>73.67</v>
       </c>
       <c r="G38">
-        <v>71.65000000000001</v>
+        <v>72.03</v>
       </c>
       <c r="H38">
-        <v>9106</v>
+        <v>7980</v>
       </c>
       <c r="I38">
-        <v>66070518</v>
+        <v>58283171</v>
       </c>
       <c r="J38">
-        <v>2.63</v>
+        <v>2.28</v>
       </c>
       <c r="K38">
-        <v>-0.85</v>
+        <v>1.53</v>
       </c>
       <c r="L38">
-        <v>-0.62</v>
+        <v>1.1</v>
       </c>
       <c r="M38">
-        <v>6.45</v>
+        <v>5.65</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B39">
+        <v>301528</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D39">
-        <v>71.88</v>
+        <v>73.11</v>
       </c>
       <c r="E39">
-        <v>72.26000000000001</v>
+        <v>72.48999999999999</v>
       </c>
       <c r="F39">
-        <v>72.48999999999999</v>
+        <v>73.56999999999999</v>
       </c>
       <c r="G39">
-        <v>70.98999999999999</v>
+        <v>71.65000000000001</v>
       </c>
       <c r="H39">
-        <v>8491</v>
+        <v>9106</v>
       </c>
       <c r="I39">
-        <v>60904867</v>
+        <v>66070518</v>
       </c>
       <c r="J39">
-        <v>2.07</v>
+        <v>2.63</v>
       </c>
       <c r="K39">
-        <v>-0.32</v>
+        <v>-0.85</v>
       </c>
       <c r="L39">
-        <v>-0.23</v>
+        <v>-0.62</v>
       </c>
       <c r="M39">
-        <v>6.01</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B40">
+        <v>301528</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D40">
-        <v>72.17</v>
+        <v>71.88</v>
       </c>
       <c r="E40">
-        <v>73.43000000000001</v>
+        <v>72.26000000000001</v>
       </c>
       <c r="F40">
-        <v>73.81</v>
+        <v>72.48999999999999</v>
       </c>
       <c r="G40">
-        <v>71</v>
+        <v>70.98999999999999</v>
       </c>
       <c r="H40">
-        <v>10545</v>
+        <v>8491</v>
       </c>
       <c r="I40">
-        <v>76901525</v>
+        <v>60904867</v>
       </c>
       <c r="J40">
-        <v>3.89</v>
+        <v>2.07</v>
       </c>
       <c r="K40">
-        <v>1.62</v>
+        <v>-0.32</v>
       </c>
       <c r="L40">
-        <v>1.17</v>
+        <v>-0.23</v>
       </c>
       <c r="M40">
-        <v>7.47</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B41">
+        <v>301528</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D41">
-        <v>72.83</v>
+        <v>72.17</v>
       </c>
       <c r="E41">
-        <v>73.73</v>
+        <v>73.43000000000001</v>
       </c>
       <c r="F41">
-        <v>74.13</v>
+        <v>73.81</v>
       </c>
       <c r="G41">
-        <v>72.3</v>
+        <v>71</v>
       </c>
       <c r="H41">
-        <v>8556</v>
+        <v>10545</v>
       </c>
       <c r="I41">
-        <v>62788312</v>
+        <v>76901525</v>
       </c>
       <c r="J41">
-        <v>2.49</v>
+        <v>3.89</v>
       </c>
       <c r="K41">
-        <v>0.41</v>
+        <v>1.62</v>
       </c>
       <c r="L41">
-        <v>0.3</v>
+        <v>1.17</v>
       </c>
       <c r="M41">
-        <v>6.06</v>
+        <v>7.47</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B42">
+        <v>301528</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D42">
-        <v>73.72</v>
+        <v>72.83</v>
       </c>
       <c r="E42">
-        <v>72.51000000000001</v>
+        <v>73.73</v>
       </c>
       <c r="F42">
-        <v>74.38</v>
+        <v>74.13</v>
       </c>
       <c r="G42">
-        <v>71.91</v>
+        <v>72.3</v>
       </c>
       <c r="H42">
-        <v>8315</v>
+        <v>8556</v>
       </c>
       <c r="I42">
-        <v>60690695</v>
+        <v>62788312</v>
       </c>
       <c r="J42">
-        <v>3.35</v>
+        <v>2.49</v>
       </c>
       <c r="K42">
-        <v>-1.65</v>
+        <v>0.41</v>
       </c>
       <c r="L42">
-        <v>-1.22</v>
+        <v>0.3</v>
       </c>
       <c r="M42">
-        <v>5.89</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B43">
+        <v>301528</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D43">
-        <v>72.98999999999999</v>
+        <v>73.72</v>
       </c>
       <c r="E43">
-        <v>86.20999999999999</v>
+        <v>72.51000000000001</v>
       </c>
       <c r="F43">
-        <v>87.01000000000001</v>
+        <v>74.38</v>
       </c>
       <c r="G43">
-        <v>72.55</v>
+        <v>71.91</v>
       </c>
       <c r="H43">
-        <v>55212</v>
+        <v>8315</v>
       </c>
       <c r="I43">
-        <v>458262451</v>
+        <v>60690695</v>
       </c>
       <c r="J43">
-        <v>19.94</v>
+        <v>3.35</v>
       </c>
       <c r="K43">
-        <v>18.89</v>
+        <v>-1.65</v>
       </c>
       <c r="L43">
-        <v>13.7</v>
+        <v>-1.22</v>
       </c>
       <c r="M43">
-        <v>39.11</v>
+        <v>5.89</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B44">
+        <v>301528</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D44">
-        <v>88</v>
+        <v>72.98999999999999</v>
       </c>
       <c r="E44">
-        <v>80.83</v>
+        <v>86.20999999999999</v>
       </c>
       <c r="F44">
-        <v>89.95</v>
+        <v>87.01000000000001</v>
       </c>
       <c r="G44">
-        <v>80.09</v>
+        <v>72.55</v>
       </c>
       <c r="H44">
-        <v>43359</v>
+        <v>55212</v>
       </c>
       <c r="I44">
-        <v>367106613</v>
+        <v>458262451</v>
       </c>
       <c r="J44">
-        <v>11.44</v>
+        <v>19.94</v>
       </c>
       <c r="K44">
-        <v>-6.24</v>
+        <v>18.89</v>
       </c>
       <c r="L44">
-        <v>-5.38</v>
+        <v>13.7</v>
       </c>
       <c r="M44">
-        <v>30.71</v>
+        <v>39.11</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B45">
+        <v>301528</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D45">
+        <v>88</v>
+      </c>
+      <c r="E45">
+        <v>80.83</v>
+      </c>
+      <c r="F45">
+        <v>89.95</v>
+      </c>
+      <c r="G45">
+        <v>80.09</v>
+      </c>
+      <c r="H45">
+        <v>43359</v>
+      </c>
+      <c r="I45">
+        <v>367106613</v>
+      </c>
+      <c r="J45">
+        <v>11.44</v>
+      </c>
+      <c r="K45">
+        <v>-6.24</v>
+      </c>
+      <c r="L45">
+        <v>-5.38</v>
+      </c>
+      <c r="M45">
+        <v>30.71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46">
+        <v>301528</v>
+      </c>
+      <c r="C46" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46">
         <v>80.65000000000001</v>
       </c>
-      <c r="E45">
+      <c r="E46">
         <v>91.91</v>
       </c>
-      <c r="F45">
+      <c r="F46">
         <v>95.20999999999999</v>
       </c>
-      <c r="G45">
+      <c r="G46">
         <v>80.64</v>
       </c>
-      <c r="H45">
+      <c r="H46">
         <v>54663</v>
       </c>
-      <c r="I45">
+      <c r="I46">
         <v>476819270.58</v>
       </c>
-      <c r="J45">
+      <c r="J46">
         <v>18.03</v>
       </c>
-      <c r="K45">
+      <c r="K46">
         <v>13.71</v>
       </c>
-      <c r="L45">
+      <c r="L46">
         <v>11.08</v>
       </c>
-      <c r="M45">
+      <c r="M46">
         <v>38.72</v>
       </c>
     </row>
